--- a/ProcesoCalibrado/Calibracion_pH.xlsx
+++ b/ProcesoCalibrado/Calibracion_pH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UPCH_LCML\2023-1\Fundamentos de Disenho\Repositorio\ProcesoCalibrado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,31 +24,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>ROJO</t>
+    <t>X</t>
   </si>
   <si>
-    <t>AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMARILLO </t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH </t>
-  </si>
-  <si>
-    <t>PRUEBAS DE CALIBRACIÓN DE PH</t>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,21 +44,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -103,9 +89,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,6 +122,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>pH</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -183,7 +192,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M1</c:v>
+                  <c:v>Y</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -210,34 +219,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -290,13 +271,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>2.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -308,13 +289,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.01</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.56</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -329,11 +310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="232062352"/>
-        <c:axId val="232058544"/>
+        <c:axId val="890414944"/>
+        <c:axId val="890429088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="232062352"/>
+        <c:axId val="890414944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -390,12 +371,12 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232058544"/>
+        <c:crossAx val="890429088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232058544"/>
+        <c:axId val="890429088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,385 +433,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232062352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$C$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pH </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-PE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja1!$B$26:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.56</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$C$26:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="232060176"/>
-        <c:axId val="232059088"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="232060176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="232059088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="232059088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="232060176"/>
+        <c:crossAx val="890414944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -919,46 +522,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1475,536 +1038,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2018,36 +1065,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2319,117 +1336,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K28"/>
+  <dimension ref="B4:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="C5" s="1">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>2.93</v>
       </c>
-      <c r="B26" s="1">
-        <v>3.01</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2.56</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="C6" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>2.5</v>
       </c>
-      <c r="B28" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="C7" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:K2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>